--- a/LeetCode Progress.xlsx
+++ b/LeetCode Progress.xlsx
@@ -1,20 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25225"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\P1340485\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bennb\Projects\leetcode_practises\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B94B65C4-6F2F-4BFD-9915-5B7DF3AD9208}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB000630-D2FD-4A9B-86F5-C319463DD6AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{9009EB83-302D-4EBD-8A36-6E27868F4E00}"/>
+    <workbookView xWindow="6375" yWindow="1980" windowWidth="28800" windowHeight="15345" activeTab="1" xr2:uid="{9009EB83-302D-4EBD-8A36-6E27868F4E00}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Nodeflair" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -33,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="310" uniqueCount="212">
   <si>
     <t>Category</t>
   </si>
@@ -93,12 +94,6 @@
     <t>https://leetcode.com/problems/plus-one/</t>
   </si>
   <si>
-    <t>https://www.techinterviewhandbook.org/best-practice-questions/</t>
-  </si>
-  <si>
-    <t>https://leetcode.com/list/xi4ci4ig/</t>
-  </si>
-  <si>
     <t>Answer</t>
   </si>
   <si>
@@ -354,13 +349,338 @@
   </si>
   <si>
     <t>2 ways. Use a fast and slow pointer to iterate (each time comparing if fast and slow pointer referring to same node). Otherwise, use a hash set to store the nodes</t>
+  </si>
+  <si>
+    <t>Sliding Window Maximum</t>
+  </si>
+  <si>
+    <t>Others</t>
+  </si>
+  <si>
+    <t>Candy</t>
+  </si>
+  <si>
+    <t>Largest Rectangle in Histogram</t>
+  </si>
+  <si>
+    <t>Text Justification</t>
+  </si>
+  <si>
+    <t>Given a number, find the next smallest palindrome</t>
+  </si>
+  <si>
+    <t>Create the list using range function, convert every element type to a string and sort it (this will mean lexicographical). Convert each element to an integer again and return the list</t>
+  </si>
+  <si>
+    <t>Lexicographical Numbers</t>
+  </si>
+  <si>
+    <t>(related Link)</t>
+  </si>
+  <si>
+    <t>Creating a data structure that supports insert and delete in constant time</t>
+  </si>
+  <si>
+    <t>Shortest Path in a Grid with Obstacles Elimination</t>
+  </si>
+  <si>
+    <t>Matrix</t>
+  </si>
+  <si>
+    <t>BFS: iterate thru the arrays. Each time a new grid == 1, call a BFS function on it to get its area, adding all its indices to the visited set. Return the island's area from the BFS function and finally return the max_area of all the islands traversed
+DFS: iterate thru the arrays, each time a new grid==1 and not in visited, call the DFS function. DFS base case - inbound, not in visited, grid==1. Adds to visited set, and returns 1+(dfs in other directions)</t>
+  </si>
+  <si>
+    <t>Max Area of Island</t>
+  </si>
+  <si>
+    <t>Initialize a cache {}. Check if the right, btm, and diagright has been cached earlier. Else, cache it with val 0. if the matrix's grid position = 1, cache it with 1 + min(right,diag,btm). Finally return the max value of all the items in cache, squared</t>
+  </si>
+  <si>
+    <t>Maximal Square</t>
+  </si>
+  <si>
+    <t>BFS: iterate thru the arrays. Each time a grid is not inside visited set, increment num of islands by 1 and do a BFS on that grid till the queue is empty. DFS: iterate thru the array, each time a grid is not inside visited set, increment num of islands by 1 and do a DFS (and call its 4 directions)</t>
+  </si>
+  <si>
+    <t>Number of Islands</t>
+  </si>
+  <si>
+    <t>Stone Game</t>
+  </si>
+  <si>
+    <t>Game Theory</t>
+  </si>
+  <si>
+    <t>Trapping Rain Water</t>
+  </si>
+  <si>
+    <t>Dynamic Programming</t>
+  </si>
+  <si>
+    <t>Longest Valid Parentheses</t>
+  </si>
+  <si>
+    <t>Regular Expression Matching</t>
+  </si>
+  <si>
+    <t>Number of Longest Increasing Subsequence</t>
+  </si>
+  <si>
+    <t>Predict the Winner</t>
+  </si>
+  <si>
+    <t>Coin Change</t>
+  </si>
+  <si>
+    <t>Jump Game II</t>
+  </si>
+  <si>
+    <t>Jump Game</t>
+  </si>
+  <si>
+    <t>N-Queens</t>
+  </si>
+  <si>
+    <t>Backtracking</t>
+  </si>
+  <si>
+    <t>Recursive DFS. Base case - len(nums)==len(array). Recursion - for loop iteration to check if nums[i] is found within the curr list. Else, append and iterate and pop() while moving onto next</t>
+  </si>
+  <si>
+    <t>Permutations</t>
+  </si>
+  <si>
+    <t>Recursive DFS. Base case - total=target, total&gt;target, i&gt;=len(candidates). Recursion - use an index i to track which candidate to add or minus to the current sum</t>
+  </si>
+  <si>
+    <t>Combination Sum</t>
+  </si>
+  <si>
+    <t>Recursive DFS. Base Case - #openbracket=#closebracket=n, appending to an output variable. Each recursion case, check #open &amp; #close, add or pop brackets, and initiate next iteration</t>
+  </si>
+  <si>
+    <t>Generate Parentheses</t>
+  </si>
+  <si>
+    <t>Number of Provinces</t>
+  </si>
+  <si>
+    <t>Graph</t>
+  </si>
+  <si>
+    <t>Shortest distance between any two points</t>
+  </si>
+  <si>
+    <t>(related discussion)</t>
+  </si>
+  <si>
+    <t>Largest Value Path in a Directed graph</t>
+  </si>
+  <si>
+    <t>String</t>
+  </si>
+  <si>
+    <t>Split the path by delimiter into a list and iterate through it. Each time, ignore unnecessary characters (like "" or "."), remove from stack (".."), else append to stack. Finally join them together: "/" + "".join(stack)</t>
+  </si>
+  <si>
+    <t>Simplify Path</t>
+  </si>
+  <si>
+    <t>Iterate through given array. Each time, initialize 2 pointers that start from i (which branch towards left &amp; right). Check: if it is palindrome, and if length is max length</t>
+  </si>
+  <si>
+    <t>Longest Palindromic Substring</t>
+  </si>
+  <si>
+    <t>Iterate through given array. When meeting a new char, add it to set(). If char exists in set, increment left pointer and remove it from the set. Each iteration - compile the max len of set</t>
+  </si>
+  <si>
+    <t>Longest Substring Without Repeating Characters</t>
+  </si>
+  <si>
+    <t>Any sorting algorithmn works: bubble sort, merge sort</t>
+  </si>
+  <si>
+    <t>Sort Colors</t>
+  </si>
+  <si>
+    <t>Sort</t>
+  </si>
+  <si>
+    <t>Merge Sort</t>
+  </si>
+  <si>
+    <t>Bubble Sort</t>
+  </si>
+  <si>
+    <t>Parse each LL and concatenate their head.vals into a string. Convert both strings to int and sum both numbers. Convert the output to a list of individual numbers (or strings). Iterate through it and create a LL</t>
+  </si>
+  <si>
+    <t>Add Two Numbers II</t>
+  </si>
+  <si>
+    <t>Initialize a hash map of {None: None}, and populate it with {oldNode: newNode}. Iterate through the LL, each time retrieving the newNode, and assigning it .next and .random pointers</t>
+  </si>
+  <si>
+    <t>Copy List with constant space complexity</t>
+  </si>
+  <si>
+    <t>Accumulate the values of the given LL into a list, and sort it. Create new nodes for the sorted list and output the head. To optimize, push the LL into a heap and pop it out 1 by 1</t>
+  </si>
+  <si>
+    <t>Sort List</t>
+  </si>
+  <si>
+    <t>Initialize psuedo head. While loop to track curr and curr.next, each time swapping curr and curr.next. Tricky part is when updating for next iteration - update prev and curr by 2</t>
+  </si>
+  <si>
+    <t>Swap Nodes in Pairs</t>
+  </si>
+  <si>
+    <t>Initialize psuedo head. Increment curr_node by n times and iterate it using while loop. When curr_node = none, then prev_node's next node is to be removed</t>
+  </si>
+  <si>
+    <t>Remove Nth Node From End of List</t>
+  </si>
+  <si>
+    <t>1. Normalize k to the size of LL (eg: k=11 in size=10 means rotate=1 only). 2. obtain key variables: old_tail and new_tail, and new_head. 3. Combine them together</t>
+  </si>
+  <si>
+    <t>Rotate List</t>
+  </si>
+  <si>
+    <t>1. Iterate till curr="left", save the prev pointer. 2. Assign curr.next to None, make reversal. 3. Update pointers: saved pointer.next.next will point to latest curr, and saved pointer.next point to prev</t>
+  </si>
+  <si>
+    <t>Reverse Linked List II</t>
+  </si>
+  <si>
+    <t>Initialize a psuedo None called prev_node. Iterate the current head: point it backwards, and point prev_node to the one in front. Update prev to head and head to the one in front. Finally return prev</t>
+  </si>
+  <si>
+    <t>Reverse Linked List </t>
+  </si>
+  <si>
+    <t>Recursive DFS. Base case - if not root, return. Also return node if p or q is found. Recursion call on left and right childs. If both are found on same levels, return root. If different levels, return their respective recursion call</t>
+  </si>
+  <si>
+    <t>Lowest Common Ancestor of a Binary Tree</t>
+  </si>
+  <si>
+    <t>Binary Tree</t>
+  </si>
+  <si>
+    <t>Recursive DFS. Base cast - if not root, return. Trick: one level only appends once, so check if len(output)==i. Recursive call for dfs(node.right,i+1) BEFORE dfs(node.left, i+1)</t>
+  </si>
+  <si>
+    <t>Binary Tree Right Side View</t>
+  </si>
+  <si>
+    <t>Recursive DFS. Base case - if not root. Append a new list for each level: check if len(output)==i. Tree level order is root, left, then right</t>
+  </si>
+  <si>
+    <t>Binary Tree Level Order Traversal</t>
+  </si>
+  <si>
+    <t>Recursive DFS. Base Case - check if root is none, and left_value &lt; root.val &lt; right_value - assign True for fulfilled cases else False. Recusion call left and right sides and check if the output matches True else False</t>
+  </si>
+  <si>
+    <t>Validate Binary Search Tree</t>
+  </si>
+  <si>
+    <t>Recursive DFS. Traverse and retrieve all nodes of left and right side. Assign them to right and left child of a new node to create the new tree and return the new head</t>
+  </si>
+  <si>
+    <t>Invert Tree</t>
+  </si>
+  <si>
+    <t>Recursive DFS. Recursion base case - if both nodes are not None, if both nodes have any inconsisntency. Start recursion - if left.val==right.val, call for outerpair and innerpair</t>
+  </si>
+  <si>
+    <t>Symmetric Tree</t>
+  </si>
+  <si>
+    <t>While loop to append all root.left to the stack. If latest node (in stack) has .right, then set it to root and append it to stack. If it has no .right, then pop and append. Use a while loop to conitnuously pop from stack and append to result. Recursive DFS: do left child, right child, then append root.val</t>
+  </si>
+  <si>
+    <t>Iterative Postorder Traversal</t>
+  </si>
+  <si>
+    <t>Iterate thru the given list and store visited values into a set(). Return when next value is in set()</t>
+  </si>
+  <si>
+    <t>Find the Duplicate Number</t>
+  </si>
+  <si>
+    <t>Array</t>
+  </si>
+  <si>
+    <t>Binary search. Trick: if pivot val is larger than the last val, meaning left side is sorted. If target is less than pivot, then its on the left side (added condition: check if nums[left] is &lt;= target)</t>
+  </si>
+  <si>
+    <t>Search in Rotated Sorted Array</t>
+  </si>
+  <si>
+    <t>Sliding window. Increase left pointer if height[left] is smaller than height[right], decrement right if otherwise. Each iteration updates the max area</t>
+  </si>
+  <si>
+    <t>Container with Most Water</t>
+  </si>
+  <si>
+    <t>iterate from left to right (first element is 1), each time storing prod up till (i) into (i) of stored_list. Repeat from right to left (last element is 1), and product both lists tgt</t>
+  </si>
+  <si>
+    <t>Product of Array Except Self</t>
+  </si>
+  <si>
+    <t>Closest Subsequence Sum</t>
+  </si>
+  <si>
+    <t>2 pointers: left and right ("sliding window"), each time checking if satisfy the condition. If yes, increment left+accumulate results by 2^(right-left), else, decrement right</t>
+  </si>
+  <si>
+    <t>Number of Subsequences That Satisfy the Given Sum Condition </t>
+  </si>
+  <si>
+    <t>Number of Subsequences where the difference between the maximum and minimum value is less than k</t>
+  </si>
+  <si>
+    <t>Longest decreasing subsequence</t>
+  </si>
+  <si>
+    <t>create a list [1] of same length. Iterate thru the list twice, each time comparing if nums[j] is &lt;= nums[i]. Put the final sum into lis[i], and return the final value of lis</t>
+  </si>
+  <si>
+    <t>Longest increasing subsequence</t>
+  </si>
+  <si>
+    <t>iterate thru the nested list. For each list, append the head.val into a list. Sort this list, and iterate thru it - each time initializing a new node and finally return it</t>
+  </si>
+  <si>
+    <t>Merge k Sorted List</t>
+  </si>
+  <si>
+    <t>while loop thru both heads tgt. Use &lt;= on head.val to append the smaller one. Finally link to the remaining linked list by checking for none</t>
+  </si>
+  <si>
+    <t>Merge two Sorted Lists</t>
+  </si>
+  <si>
+    <t>Description</t>
+  </si>
+  <si>
+    <t>LC #</t>
+  </si>
+  <si>
+    <t>Bytedance SWE Interview Qns (Nodeflair)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -384,13 +704,55 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C5700"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -402,11 +764,14 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -423,9 +788,40 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="3" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="4" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="2" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="5">
+    <cellStyle name="Bad" xfId="3" builtinId="27"/>
+    <cellStyle name="Good" xfId="2" builtinId="26"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+    <cellStyle name="Neutral" xfId="4" builtinId="28"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -740,7 +1136,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FCC1EC10-C48B-4FA5-9D02-9A7B5BB9E976}">
   <dimension ref="B2:H25"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A18" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <selection activeCell="D25" sqref="D25"/>
     </sheetView>
   </sheetViews>
@@ -776,7 +1172,7 @@
         <v>7</v>
       </c>
       <c r="H2" s="5" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="3" spans="2:8" ht="45" x14ac:dyDescent="0.25">
@@ -799,7 +1195,7 @@
         <v>14</v>
       </c>
       <c r="H3" s="4" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="4" spans="2:8" ht="45" x14ac:dyDescent="0.25">
@@ -822,7 +1218,7 @@
         <v>13</v>
       </c>
       <c r="H4" s="4" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="5" spans="2:8" ht="45" x14ac:dyDescent="0.25">
@@ -845,7 +1241,7 @@
         <v>18</v>
       </c>
       <c r="H5" s="4" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="6" spans="2:8" ht="45" x14ac:dyDescent="0.25">
@@ -856,19 +1252,19 @@
         <v>5</v>
       </c>
       <c r="D6" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="G6" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="H6" s="4" t="s">
         <v>26</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="F6" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="G6" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="H6" s="4" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="7" spans="2:8" x14ac:dyDescent="0.25">
@@ -879,7 +1275,7 @@
         <v>5</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="G7" s="1"/>
     </row>
@@ -891,7 +1287,7 @@
         <v>5</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="G8" s="1"/>
     </row>
@@ -903,19 +1299,19 @@
         <v>5</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="E9" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="G9" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="F9" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="G9" s="4" t="s">
-        <v>34</v>
-      </c>
       <c r="H9" s="4" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="10" spans="2:8" ht="45" x14ac:dyDescent="0.25">
@@ -926,19 +1322,19 @@
         <v>5</v>
       </c>
       <c r="D10" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="G10" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="E10" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="F10" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="G10" s="4" t="s">
+      <c r="H10" s="4" t="s">
         <v>39</v>
-      </c>
-      <c r="H10" s="4" t="s">
-        <v>41</v>
       </c>
     </row>
     <row r="11" spans="2:8" ht="45" x14ac:dyDescent="0.25">
@@ -949,19 +1345,19 @@
         <v>5</v>
       </c>
       <c r="D11" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="F11" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="E11" s="2" t="s">
+      <c r="G11" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="H11" s="4" t="s">
         <v>44</v>
-      </c>
-      <c r="F11" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="G11" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="H11" s="4" t="s">
-        <v>46</v>
       </c>
     </row>
     <row r="12" spans="2:8" ht="60" x14ac:dyDescent="0.25">
@@ -972,19 +1368,19 @@
         <v>5</v>
       </c>
       <c r="D12" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="G12" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="E12" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="F12" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="G12" s="4" t="s">
-        <v>49</v>
-      </c>
       <c r="H12" s="4" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="13" spans="2:8" ht="45" x14ac:dyDescent="0.25">
@@ -995,19 +1391,19 @@
         <v>5</v>
       </c>
       <c r="D13" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="G13" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="E13" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="F13" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="G13" s="4" t="s">
-        <v>55</v>
-      </c>
       <c r="H13" s="4" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="14" spans="2:8" ht="45" x14ac:dyDescent="0.25">
@@ -1018,19 +1414,19 @@
         <v>5</v>
       </c>
       <c r="D14" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="G14" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="E14" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="F14" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="G14" s="4" t="s">
-        <v>59</v>
-      </c>
       <c r="H14" s="4" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="15" spans="2:8" ht="45" x14ac:dyDescent="0.25">
@@ -1041,19 +1437,19 @@
         <v>5</v>
       </c>
       <c r="D15" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="F15" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="G15" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="E15" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="F15" s="2" t="s">
+      <c r="H15" s="4" t="s">
         <v>64</v>
-      </c>
-      <c r="G15" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="H15" s="4" t="s">
-        <v>66</v>
       </c>
     </row>
     <row r="16" spans="2:8" ht="45" x14ac:dyDescent="0.25">
@@ -1064,19 +1460,19 @@
         <v>5</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="E16" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="F16" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="F16" s="2" t="s">
-        <v>71</v>
-      </c>
       <c r="G16" s="4" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="H16" s="4" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="17" spans="2:8" ht="60" x14ac:dyDescent="0.25">
@@ -1087,19 +1483,19 @@
         <v>5</v>
       </c>
       <c r="D17" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="F17" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="E17" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="F17" s="2" t="s">
-        <v>76</v>
-      </c>
       <c r="G17" s="4" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="H17" s="4" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
     <row r="18" spans="2:8" x14ac:dyDescent="0.25">
@@ -1110,7 +1506,7 @@
         <v>5</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="G18" s="1"/>
     </row>
@@ -1122,7 +1518,7 @@
         <v>5</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="G19" s="1"/>
     </row>
@@ -1134,19 +1530,19 @@
         <v>5</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="E20" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="F20" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="G20" s="4" t="s">
         <v>87</v>
       </c>
-      <c r="F20" s="2" t="s">
+      <c r="H20" s="4" t="s">
         <v>88</v>
-      </c>
-      <c r="G20" s="4" t="s">
-        <v>89</v>
-      </c>
-      <c r="H20" s="4" t="s">
-        <v>90</v>
       </c>
     </row>
     <row r="21" spans="2:8" ht="30" x14ac:dyDescent="0.25">
@@ -1157,19 +1553,19 @@
         <v>5</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="G21" s="4" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="H21" s="4" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
     <row r="22" spans="2:8" ht="60" x14ac:dyDescent="0.25">
@@ -1180,19 +1576,19 @@
         <v>5</v>
       </c>
       <c r="D22" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="E22" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="F22" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="G22" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="H22" s="4" t="s">
         <v>81</v>
-      </c>
-      <c r="E22" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="F22" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="G22" s="4" t="s">
-        <v>84</v>
-      </c>
-      <c r="H22" s="4" t="s">
-        <v>83</v>
       </c>
     </row>
     <row r="23" spans="2:8" ht="75" x14ac:dyDescent="0.25">
@@ -1203,19 +1599,19 @@
         <v>5</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="G23" s="4" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="H23" s="4" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
     </row>
     <row r="24" spans="2:8" x14ac:dyDescent="0.25">
@@ -1223,10 +1619,10 @@
         <v>22</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
     <row r="25" spans="2:8" ht="45" x14ac:dyDescent="0.25">
@@ -1234,22 +1630,22 @@
         <v>23</v>
       </c>
       <c r="C25" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="D25" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="D25" s="2" t="s">
+      <c r="E25" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="F25" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="G25" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="H25" s="4" t="s">
         <v>101</v>
-      </c>
-      <c r="E25" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="F25" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="G25" s="4" t="s">
-        <v>102</v>
-      </c>
-      <c r="H25" s="4" t="s">
-        <v>103</v>
       </c>
     </row>
   </sheetData>
@@ -1298,26 +1694,1092 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3B76EA0A-37BF-421A-AFF3-E3C95AD4A87B}">
-  <dimension ref="B3:B4"/>
+  <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="T12" sqref="T12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="3" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B3" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="4" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B4" t="s">
-        <v>19</v>
-      </c>
-    </row>
-  </sheetData>
+  <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C639630B-1257-44C5-AC7E-A6B0B406D0B5}">
+  <dimension ref="B1:F63"/>
+  <sheetViews>
+    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="6" customWidth="1"/>
+    <col min="3" max="3" width="21.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="37.85546875" style="6" customWidth="1"/>
+    <col min="5" max="5" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="79.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B1" s="15" t="s">
+        <v>211</v>
+      </c>
+      <c r="D1"/>
+    </row>
+    <row r="2" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B2" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="E2" s="10" t="s">
+        <v>210</v>
+      </c>
+      <c r="F2" s="10" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="3" spans="2:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="B3" s="10">
+        <v>1</v>
+      </c>
+      <c r="C3" s="10" t="s">
+        <v>191</v>
+      </c>
+      <c r="D3" s="14" t="s">
+        <v>208</v>
+      </c>
+      <c r="E3" s="12">
+        <v>21</v>
+      </c>
+      <c r="F3" s="7" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="4" spans="2:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="B4" s="10">
+        <v>2</v>
+      </c>
+      <c r="C4" s="10" t="s">
+        <v>191</v>
+      </c>
+      <c r="D4" s="9" t="s">
+        <v>206</v>
+      </c>
+      <c r="E4" s="12">
+        <v>23</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="5" spans="2:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="B5" s="10">
+        <v>3</v>
+      </c>
+      <c r="C5" s="10" t="s">
+        <v>191</v>
+      </c>
+      <c r="D5" s="11" t="s">
+        <v>204</v>
+      </c>
+      <c r="E5" s="12">
+        <v>300</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="6" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B6" s="10">
+        <v>4</v>
+      </c>
+      <c r="C6" s="10" t="s">
+        <v>191</v>
+      </c>
+      <c r="D6" s="11" t="s">
+        <v>202</v>
+      </c>
+      <c r="E6" s="13"/>
+      <c r="F6" s="7"/>
+    </row>
+    <row r="7" spans="2:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="B7" s="10">
+        <v>5</v>
+      </c>
+      <c r="C7" s="10" t="s">
+        <v>191</v>
+      </c>
+      <c r="D7" s="11" t="s">
+        <v>201</v>
+      </c>
+      <c r="E7" s="13"/>
+      <c r="F7" s="7"/>
+    </row>
+    <row r="8" spans="2:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="B8" s="10">
+        <v>6</v>
+      </c>
+      <c r="C8" s="10" t="s">
+        <v>191</v>
+      </c>
+      <c r="D8" s="11" t="s">
+        <v>200</v>
+      </c>
+      <c r="E8" s="12">
+        <v>1498</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="9" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B9" s="10">
+        <v>7</v>
+      </c>
+      <c r="C9" s="10" t="s">
+        <v>191</v>
+      </c>
+      <c r="D9" s="9" t="s">
+        <v>198</v>
+      </c>
+      <c r="E9" s="13"/>
+      <c r="F9" s="7"/>
+    </row>
+    <row r="10" spans="2:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="B10" s="10">
+        <v>8</v>
+      </c>
+      <c r="C10" s="10" t="s">
+        <v>191</v>
+      </c>
+      <c r="D10" s="11" t="s">
+        <v>197</v>
+      </c>
+      <c r="E10" s="12">
+        <v>238</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="11" spans="2:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="B11" s="10">
+        <v>9</v>
+      </c>
+      <c r="C11" s="10" t="s">
+        <v>191</v>
+      </c>
+      <c r="D11" s="11" t="s">
+        <v>195</v>
+      </c>
+      <c r="E11" s="12">
+        <v>11</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="12" spans="2:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="B12" s="10">
+        <v>10</v>
+      </c>
+      <c r="C12" s="10" t="s">
+        <v>191</v>
+      </c>
+      <c r="D12" s="11" t="s">
+        <v>193</v>
+      </c>
+      <c r="E12" s="12">
+        <v>33</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="13" spans="2:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="B13" s="10">
+        <v>11</v>
+      </c>
+      <c r="C13" s="10" t="s">
+        <v>191</v>
+      </c>
+      <c r="D13" s="11" t="s">
+        <v>190</v>
+      </c>
+      <c r="E13" s="12">
+        <v>287</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="14" spans="2:6" ht="60" x14ac:dyDescent="0.25">
+      <c r="B14" s="10">
+        <v>12</v>
+      </c>
+      <c r="C14" s="10" t="s">
+        <v>176</v>
+      </c>
+      <c r="D14" s="14" t="s">
+        <v>188</v>
+      </c>
+      <c r="E14" s="8">
+        <v>145</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="15" spans="2:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="B15" s="10">
+        <v>13</v>
+      </c>
+      <c r="C15" s="10" t="s">
+        <v>176</v>
+      </c>
+      <c r="D15" s="14" t="s">
+        <v>186</v>
+      </c>
+      <c r="E15" s="8">
+        <v>101</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="16" spans="2:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="B16" s="10">
+        <v>14</v>
+      </c>
+      <c r="C16" s="10" t="s">
+        <v>176</v>
+      </c>
+      <c r="D16" s="14" t="s">
+        <v>184</v>
+      </c>
+      <c r="E16" s="8">
+        <v>226</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="17" spans="2:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="B17" s="10">
+        <v>15</v>
+      </c>
+      <c r="C17" s="10" t="s">
+        <v>176</v>
+      </c>
+      <c r="D17" s="11" t="s">
+        <v>182</v>
+      </c>
+      <c r="E17" s="8">
+        <v>98</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="18" spans="2:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="B18" s="10">
+        <v>16</v>
+      </c>
+      <c r="C18" s="10" t="s">
+        <v>176</v>
+      </c>
+      <c r="D18" s="11" t="s">
+        <v>180</v>
+      </c>
+      <c r="E18" s="8">
+        <v>102</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="19" spans="2:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="B19" s="10">
+        <v>17</v>
+      </c>
+      <c r="C19" s="10" t="s">
+        <v>176</v>
+      </c>
+      <c r="D19" s="11" t="s">
+        <v>178</v>
+      </c>
+      <c r="E19" s="8">
+        <v>199</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="20" spans="2:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="B20" s="10">
+        <v>18</v>
+      </c>
+      <c r="C20" s="10" t="s">
+        <v>176</v>
+      </c>
+      <c r="D20" s="11" t="s">
+        <v>175</v>
+      </c>
+      <c r="E20" s="8">
+        <v>236</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="21" spans="2:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="B21" s="10">
+        <v>19</v>
+      </c>
+      <c r="C21" s="10" t="s">
+        <v>97</v>
+      </c>
+      <c r="D21" s="14" t="s">
+        <v>173</v>
+      </c>
+      <c r="E21" s="8">
+        <v>206</v>
+      </c>
+      <c r="F21" s="7" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="22" spans="2:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="B22" s="10">
+        <v>20</v>
+      </c>
+      <c r="C22" s="10" t="s">
+        <v>97</v>
+      </c>
+      <c r="D22" s="11" t="s">
+        <v>171</v>
+      </c>
+      <c r="E22" s="8">
+        <v>92</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="23" spans="2:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="B23" s="10">
+        <v>21</v>
+      </c>
+      <c r="C23" s="10" t="s">
+        <v>97</v>
+      </c>
+      <c r="D23" s="11" t="s">
+        <v>169</v>
+      </c>
+      <c r="E23" s="8">
+        <v>61</v>
+      </c>
+      <c r="F23" s="7" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="24" spans="2:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="B24" s="10">
+        <v>22</v>
+      </c>
+      <c r="C24" s="10" t="s">
+        <v>97</v>
+      </c>
+      <c r="D24" s="11" t="s">
+        <v>167</v>
+      </c>
+      <c r="E24" s="8">
+        <v>19</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="25" spans="2:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="B25" s="10">
+        <v>23</v>
+      </c>
+      <c r="C25" s="10" t="s">
+        <v>97</v>
+      </c>
+      <c r="D25" s="11" t="s">
+        <v>165</v>
+      </c>
+      <c r="E25" s="8">
+        <v>24</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="26" spans="2:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="B26" s="10">
+        <v>24</v>
+      </c>
+      <c r="C26" s="10" t="s">
+        <v>97</v>
+      </c>
+      <c r="D26" s="11" t="s">
+        <v>163</v>
+      </c>
+      <c r="E26" s="8">
+        <v>148</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="27" spans="2:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="B27" s="10">
+        <v>25</v>
+      </c>
+      <c r="C27" s="10" t="s">
+        <v>97</v>
+      </c>
+      <c r="D27" s="11" t="s">
+        <v>161</v>
+      </c>
+      <c r="E27" s="8">
+        <v>138</v>
+      </c>
+      <c r="F27" s="7" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="28" spans="2:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="B28" s="10">
+        <v>26</v>
+      </c>
+      <c r="C28" s="10" t="s">
+        <v>97</v>
+      </c>
+      <c r="D28" s="11" t="s">
+        <v>159</v>
+      </c>
+      <c r="E28" s="8">
+        <v>445</v>
+      </c>
+      <c r="F28" s="7" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="29" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B29" s="10">
+        <v>27</v>
+      </c>
+      <c r="C29" s="10" t="s">
+        <v>155</v>
+      </c>
+      <c r="D29" s="11" t="s">
+        <v>157</v>
+      </c>
+      <c r="E29" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="F29" s="7"/>
+    </row>
+    <row r="30" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B30" s="10">
+        <v>28</v>
+      </c>
+      <c r="C30" s="10" t="s">
+        <v>155</v>
+      </c>
+      <c r="D30" s="11" t="s">
+        <v>156</v>
+      </c>
+      <c r="E30" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="F30" s="7"/>
+    </row>
+    <row r="31" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B31" s="10">
+        <v>29</v>
+      </c>
+      <c r="C31" s="10" t="s">
+        <v>155</v>
+      </c>
+      <c r="D31" s="11" t="s">
+        <v>154</v>
+      </c>
+      <c r="E31" s="8">
+        <v>75</v>
+      </c>
+      <c r="F31" s="7" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="32" spans="2:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="B32" s="10">
+        <v>30</v>
+      </c>
+      <c r="C32" s="10" t="s">
+        <v>146</v>
+      </c>
+      <c r="D32" s="11" t="s">
+        <v>152</v>
+      </c>
+      <c r="E32" s="8">
+        <v>3</v>
+      </c>
+      <c r="F32" s="7" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="33" spans="2:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="B33" s="10">
+        <v>31</v>
+      </c>
+      <c r="C33" s="10" t="s">
+        <v>146</v>
+      </c>
+      <c r="D33" s="11" t="s">
+        <v>150</v>
+      </c>
+      <c r="E33" s="8">
+        <v>5</v>
+      </c>
+      <c r="F33" s="7" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="34" spans="2:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="B34" s="10">
+        <v>32</v>
+      </c>
+      <c r="C34" s="10" t="s">
+        <v>146</v>
+      </c>
+      <c r="D34" s="11" t="s">
+        <v>148</v>
+      </c>
+      <c r="E34" s="8">
+        <v>71</v>
+      </c>
+      <c r="F34" s="7" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="35" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B35" s="10">
+        <v>33</v>
+      </c>
+      <c r="C35" s="10" t="s">
+        <v>146</v>
+      </c>
+      <c r="D35" s="9" t="s">
+        <v>126</v>
+      </c>
+      <c r="E35" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="F35" s="7"/>
+    </row>
+    <row r="36" spans="2:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="B36" s="10">
+        <v>34</v>
+      </c>
+      <c r="C36" s="10" t="s">
+        <v>142</v>
+      </c>
+      <c r="D36" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="E36" s="12" t="s">
+        <v>144</v>
+      </c>
+      <c r="F36" s="7"/>
+    </row>
+    <row r="37" spans="2:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="B37" s="10">
+        <v>35</v>
+      </c>
+      <c r="C37" s="10" t="s">
+        <v>142</v>
+      </c>
+      <c r="D37" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="E37" s="13"/>
+      <c r="F37" s="7"/>
+    </row>
+    <row r="38" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B38" s="10">
+        <v>36</v>
+      </c>
+      <c r="C38" s="10" t="s">
+        <v>142</v>
+      </c>
+      <c r="D38" s="11" t="s">
+        <v>141</v>
+      </c>
+      <c r="E38" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="F38" s="7"/>
+    </row>
+    <row r="39" spans="2:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="B39" s="10">
+        <v>37</v>
+      </c>
+      <c r="C39" s="10" t="s">
+        <v>134</v>
+      </c>
+      <c r="D39" s="11" t="s">
+        <v>140</v>
+      </c>
+      <c r="E39" s="8">
+        <v>22</v>
+      </c>
+      <c r="F39" s="7" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="40" spans="2:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="B40" s="10">
+        <v>38</v>
+      </c>
+      <c r="C40" s="10" t="s">
+        <v>134</v>
+      </c>
+      <c r="D40" s="11" t="s">
+        <v>138</v>
+      </c>
+      <c r="E40" s="8">
+        <v>39</v>
+      </c>
+      <c r="F40" s="7" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="41" spans="2:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="B41" s="10">
+        <v>39</v>
+      </c>
+      <c r="C41" s="10" t="s">
+        <v>134</v>
+      </c>
+      <c r="D41" s="11" t="s">
+        <v>136</v>
+      </c>
+      <c r="E41" s="8">
+        <v>46</v>
+      </c>
+      <c r="F41" s="7" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="42" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B42" s="10">
+        <v>40</v>
+      </c>
+      <c r="C42" s="10" t="s">
+        <v>134</v>
+      </c>
+      <c r="D42" s="9" t="s">
+        <v>133</v>
+      </c>
+      <c r="E42" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="F42" s="7"/>
+    </row>
+    <row r="43" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B43" s="10">
+        <v>41</v>
+      </c>
+      <c r="C43" s="10" t="s">
+        <v>125</v>
+      </c>
+      <c r="D43" s="11" t="s">
+        <v>132</v>
+      </c>
+      <c r="E43" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="F43" s="7"/>
+    </row>
+    <row r="44" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B44" s="10">
+        <v>42</v>
+      </c>
+      <c r="C44" s="10" t="s">
+        <v>125</v>
+      </c>
+      <c r="D44" s="11" t="s">
+        <v>131</v>
+      </c>
+      <c r="E44" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="F44" s="7"/>
+    </row>
+    <row r="45" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B45" s="10">
+        <v>43</v>
+      </c>
+      <c r="C45" s="10" t="s">
+        <v>125</v>
+      </c>
+      <c r="D45" s="11" t="s">
+        <v>130</v>
+      </c>
+      <c r="E45" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="F45" s="7"/>
+    </row>
+    <row r="46" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B46" s="10">
+        <v>44</v>
+      </c>
+      <c r="C46" s="10" t="s">
+        <v>125</v>
+      </c>
+      <c r="D46" s="11" t="s">
+        <v>129</v>
+      </c>
+      <c r="E46" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="F46" s="7"/>
+    </row>
+    <row r="47" spans="2:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="B47" s="10">
+        <v>45</v>
+      </c>
+      <c r="C47" s="10" t="s">
+        <v>125</v>
+      </c>
+      <c r="D47" s="11" t="s">
+        <v>128</v>
+      </c>
+      <c r="E47" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="F47" s="7"/>
+    </row>
+    <row r="48" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B48" s="10">
+        <v>46</v>
+      </c>
+      <c r="C48" s="10" t="s">
+        <v>125</v>
+      </c>
+      <c r="D48" s="9" t="s">
+        <v>127</v>
+      </c>
+      <c r="E48" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="F48" s="7"/>
+    </row>
+    <row r="49" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B49" s="10">
+        <v>47</v>
+      </c>
+      <c r="C49" s="10" t="s">
+        <v>125</v>
+      </c>
+      <c r="D49" s="9" t="s">
+        <v>126</v>
+      </c>
+      <c r="E49" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="F49" s="7"/>
+    </row>
+    <row r="50" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B50" s="10">
+        <v>48</v>
+      </c>
+      <c r="C50" s="10" t="s">
+        <v>125</v>
+      </c>
+      <c r="D50" s="9" t="s">
+        <v>124</v>
+      </c>
+      <c r="E50" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="F50" s="7"/>
+    </row>
+    <row r="51" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B51" s="10">
+        <v>49</v>
+      </c>
+      <c r="C51" s="10" t="s">
+        <v>123</v>
+      </c>
+      <c r="D51" s="11" t="s">
+        <v>122</v>
+      </c>
+      <c r="E51" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="F51" s="7"/>
+    </row>
+    <row r="52" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B52" s="10">
+        <v>50</v>
+      </c>
+      <c r="C52" s="10" t="s">
+        <v>115</v>
+      </c>
+      <c r="D52" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="E52" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="F52" s="7"/>
+    </row>
+    <row r="53" spans="2:6" ht="60" x14ac:dyDescent="0.25">
+      <c r="B53" s="10">
+        <v>51</v>
+      </c>
+      <c r="C53" s="10" t="s">
+        <v>115</v>
+      </c>
+      <c r="D53" s="11" t="s">
+        <v>121</v>
+      </c>
+      <c r="E53" s="8">
+        <v>200</v>
+      </c>
+      <c r="F53" s="7" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="54" spans="2:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="B54" s="10">
+        <v>52</v>
+      </c>
+      <c r="C54" s="10" t="s">
+        <v>115</v>
+      </c>
+      <c r="D54" s="11" t="s">
+        <v>119</v>
+      </c>
+      <c r="E54" s="8">
+        <v>221</v>
+      </c>
+      <c r="F54" s="7" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="55" spans="2:6" ht="90" x14ac:dyDescent="0.25">
+      <c r="B55" s="10">
+        <v>53</v>
+      </c>
+      <c r="C55" s="10" t="s">
+        <v>115</v>
+      </c>
+      <c r="D55" s="11" t="s">
+        <v>117</v>
+      </c>
+      <c r="E55" s="8">
+        <v>695</v>
+      </c>
+      <c r="F55" s="7" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="56" spans="2:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="B56" s="10">
+        <v>54</v>
+      </c>
+      <c r="C56" s="10" t="s">
+        <v>115</v>
+      </c>
+      <c r="D56" s="9" t="s">
+        <v>114</v>
+      </c>
+      <c r="E56" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="F56" s="7"/>
+    </row>
+    <row r="57" spans="2:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="B57" s="10">
+        <v>55</v>
+      </c>
+      <c r="C57" s="10" t="s">
+        <v>105</v>
+      </c>
+      <c r="D57" s="11" t="s">
+        <v>113</v>
+      </c>
+      <c r="E57" s="12" t="s">
+        <v>112</v>
+      </c>
+      <c r="F57" s="7"/>
+    </row>
+    <row r="58" spans="2:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="B58" s="10">
+        <v>56</v>
+      </c>
+      <c r="C58" s="10" t="s">
+        <v>105</v>
+      </c>
+      <c r="D58" s="11" t="s">
+        <v>111</v>
+      </c>
+      <c r="E58" s="8">
+        <v>386</v>
+      </c>
+      <c r="F58" s="7" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="59" spans="2:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="B59" s="10">
+        <v>57</v>
+      </c>
+      <c r="C59" s="10" t="s">
+        <v>105</v>
+      </c>
+      <c r="D59" s="9" t="s">
+        <v>109</v>
+      </c>
+      <c r="E59" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="F59" s="7"/>
+    </row>
+    <row r="60" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B60" s="10">
+        <v>58</v>
+      </c>
+      <c r="C60" s="10" t="s">
+        <v>105</v>
+      </c>
+      <c r="D60" s="9" t="s">
+        <v>108</v>
+      </c>
+      <c r="E60" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="F60" s="7"/>
+    </row>
+    <row r="61" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B61" s="10">
+        <v>59</v>
+      </c>
+      <c r="C61" s="10" t="s">
+        <v>105</v>
+      </c>
+      <c r="D61" s="9" t="s">
+        <v>107</v>
+      </c>
+      <c r="E61" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="F61" s="7"/>
+    </row>
+    <row r="62" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B62" s="10">
+        <v>60</v>
+      </c>
+      <c r="C62" s="10" t="s">
+        <v>105</v>
+      </c>
+      <c r="D62" s="9" t="s">
+        <v>106</v>
+      </c>
+      <c r="E62" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="F62" s="7"/>
+    </row>
+    <row r="63" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B63" s="10">
+        <v>61</v>
+      </c>
+      <c r="C63" s="10" t="s">
+        <v>105</v>
+      </c>
+      <c r="D63" s="9" t="s">
+        <v>104</v>
+      </c>
+      <c r="E63" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="F63" s="7"/>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="E3" r:id="rId1" display="https://leetcode.com/problems/merge-two-sorted-lists/" xr:uid="{55AED7E4-9717-4B34-A5D7-7BB385429625}"/>
+    <hyperlink ref="E8" r:id="rId2" display="https://leetcode.com/problems/number-of-subsequences-that-satisfy-the-given-sum-condition/" xr:uid="{4761759F-0843-429B-BB7D-3538C0157C49}"/>
+    <hyperlink ref="E4" r:id="rId3" display="https://leetcode.com/problems/merge-k-sorted-lists/" xr:uid="{12EF79FC-C2FE-4D0A-9CEA-E494845C45FD}"/>
+    <hyperlink ref="E5" r:id="rId4" display="https://leetcode.com/problems/longest-increasing-subsequence/" xr:uid="{EA45528C-1E09-4941-A84E-814B5784740F}"/>
+    <hyperlink ref="E10" r:id="rId5" display="https://leetcode.com/problems/product-of-array-except-self/" xr:uid="{CE69CBC1-2E9C-48BA-BE88-09F80B8A82E5}"/>
+    <hyperlink ref="E11" r:id="rId6" display="https://leetcode.com/problems/container-with-most-water/" xr:uid="{3D97020D-D5DA-4D5B-BC98-EA6E3BB86BE6}"/>
+    <hyperlink ref="E12" r:id="rId7" display="https://leetcode.com/problems/search-in-rotated-sorted-array/" xr:uid="{111A63DC-0DC2-4D49-BBFA-62C0E00A46B3}"/>
+    <hyperlink ref="E13" r:id="rId8" display="https://leetcode.com/problems/find-the-duplicate-number/" xr:uid="{51CBD179-923C-4AEA-ADA9-1968A87DA003}"/>
+    <hyperlink ref="E14" r:id="rId9" display="https://leetcode.com/problems/binary-tree-postorder-traversal/" xr:uid="{62564A5D-7E2F-4ED7-BD23-87FD3EB12A32}"/>
+    <hyperlink ref="E15" r:id="rId10" display="https://leetcode.com/problems/symmetric-tree/" xr:uid="{71EB0885-7A6C-42D2-B1DA-4166514A30E4}"/>
+    <hyperlink ref="E16" r:id="rId11" display="https://leetcode.com/problems/invert-binary-tree/" xr:uid="{239F644D-0B76-466E-9059-FE36CE46F77A}"/>
+    <hyperlink ref="E17" r:id="rId12" display="https://leetcode.com/problems/validate-binary-search-tree/" xr:uid="{D36AB6D3-E8AF-4601-99EF-27C1A0DCCE27}"/>
+    <hyperlink ref="E18" r:id="rId13" display="https://leetcode.com/problems/binary-tree-level-order-traversal/" xr:uid="{2BF635CE-481B-4282-A768-2F421A1854C5}"/>
+    <hyperlink ref="E19" r:id="rId14" display="https://leetcode.com/problems/binary-tree-right-side-view/" xr:uid="{29085159-C3F6-4326-BC55-A67D5AA0071D}"/>
+    <hyperlink ref="E20" r:id="rId15" display="https://leetcode.com/problems/lowest-common-ancestor-of-a-binary-tree/" xr:uid="{FD7C6112-656C-4DA8-86BD-AA6D3ECA3BD2}"/>
+    <hyperlink ref="E21" r:id="rId16" display="https://leetcode.com/problems/reverse-linked-list/" xr:uid="{7A64A1AD-BE11-4475-8B7E-304767248371}"/>
+    <hyperlink ref="E22" r:id="rId17" display="https://leetcode.com/problems/reverse-linked-list-ii/" xr:uid="{B7227270-9AF8-4630-8D72-ABA64BFD5F27}"/>
+    <hyperlink ref="E23" r:id="rId18" display="https://leetcode.com/problems/rotate-list/" xr:uid="{B08BDF29-D127-4B4D-87C7-3172E0985008}"/>
+    <hyperlink ref="E24" r:id="rId19" display="https://leetcode.com/problems/remove-nth-node-from-end-of-list/" xr:uid="{15FB7612-A636-4BB5-BA12-B6E65CB799B4}"/>
+    <hyperlink ref="E25" r:id="rId20" display="https://leetcode.com/problems/swap-nodes-in-pairs/" xr:uid="{5276590F-C0A1-47C1-BFC6-3AF0EE1EEABD}"/>
+    <hyperlink ref="E26" r:id="rId21" display="https://leetcode.com/problems/sort-list/" xr:uid="{8A9CD937-6138-4434-9418-25687FA28070}"/>
+    <hyperlink ref="E27" r:id="rId22" display="138" xr:uid="{A98922A1-BE84-4885-9620-F175EA377C15}"/>
+    <hyperlink ref="E28" r:id="rId23" display="https://leetcode.com/problems/add-two-numbers-ii/" xr:uid="{7D124760-3C3C-48ED-B9AC-2084067347A0}"/>
+    <hyperlink ref="E29" r:id="rId24" display="https://www.geeksforgeeks.org/bubble-sort/" xr:uid="{D5DADA04-90C8-49E1-84E5-2FFDCF6F99FD}"/>
+    <hyperlink ref="E30" r:id="rId25" display="https://www.geeksforgeeks.org/merge-sort/" xr:uid="{735FAE1A-91D3-483B-A6CC-F909788D4BBE}"/>
+    <hyperlink ref="E31" r:id="rId26" display="https://leetcode.com/problems/sort-colors/" xr:uid="{D7BC688B-7652-4436-9F41-EE429F52CFF3}"/>
+    <hyperlink ref="E32" r:id="rId27" display="https://leetcode.com/problems/longest-substring-without-repeating-characters/" xr:uid="{207063ED-4CDC-4E2E-A38D-02A0D169A7F1}"/>
+    <hyperlink ref="E33" r:id="rId28" display="https://leetcode.com/problems/longest-palindromic-substring/" xr:uid="{3CEEF239-694A-491A-8603-F5BF0E04E346}"/>
+    <hyperlink ref="E34" r:id="rId29" display="https://leetcode.com/problems/simplify-path/" xr:uid="{0415C521-AD23-40A0-9364-3241DD231203}"/>
+    <hyperlink ref="E35" r:id="rId30" display="https://leetcode.com/problems/longest-valid-parentheses/" xr:uid="{F4FDA3F2-9996-4F64-9B04-584FFD3662A7}"/>
+    <hyperlink ref="E36" r:id="rId31" display="https://leetcode.com/discuss/interview-question/algorithms/277534/Google-Largest-Value-Path-in-a-Directed-graph/268142" xr:uid="{DD006B11-769E-4C64-851B-E953411D15B1}"/>
+    <hyperlink ref="E38" r:id="rId32" display="https://leetcode.com/problems/number-of-provinces/" xr:uid="{1CB03916-07B7-4527-B0C8-01106424B4D6}"/>
+    <hyperlink ref="E39" r:id="rId33" display="https://leetcode.com/problems/generate-parentheses/" xr:uid="{B8520956-FBA5-442B-9919-93C7D208B9A7}"/>
+    <hyperlink ref="E40" r:id="rId34" display="https://leetcode.com/problems/combination-sum/" xr:uid="{1A414FC1-D2A8-4BC1-A416-5B2F7A8D1641}"/>
+    <hyperlink ref="E41" r:id="rId35" display="https://leetcode.com/problems/permutations/" xr:uid="{1D8CFE4B-23A5-44CB-9CAE-DE6344A0F48B}"/>
+    <hyperlink ref="E43" r:id="rId36" display="https://leetcode.com/problems/jump-game/" xr:uid="{163275B6-1D21-472B-858A-BFCC9D576EFA}"/>
+    <hyperlink ref="E44" r:id="rId37" display="https://leetcode.com/problems/jump-game-ii/" xr:uid="{1293C974-EDF0-40F0-94C8-5CB45262B364}"/>
+    <hyperlink ref="E46" r:id="rId38" display="https://leetcode.com/problems/predict-the-winner/" xr:uid="{1E6FC9A1-048F-411E-A4C7-D1E68BCD49BB}"/>
+    <hyperlink ref="E45" r:id="rId39" display="https://leetcode.com/problems/coin-change/" xr:uid="{55C6405F-1DD7-486B-8B17-13D5280E4AD5}"/>
+    <hyperlink ref="E47" r:id="rId40" display="https://leetcode.com/problems/number-of-longest-increasing-subsequence/" xr:uid="{77139798-B5AE-4675-A79C-FB38AEEAC17B}"/>
+    <hyperlink ref="E42" r:id="rId41" display="https://leetcode.com/problems/n-queens/" xr:uid="{CE81B17D-D0A1-4A73-A35A-2B420A9026EE}"/>
+    <hyperlink ref="E51" r:id="rId42" display="https://leetcode.com/problems/stone-game/" xr:uid="{19556B38-2B85-4486-A140-48463F6F1F6A}"/>
+    <hyperlink ref="E52" r:id="rId43" display="https://leetcode.com/problems/spiral-matrix/" xr:uid="{8F3E4A51-88F3-4747-A2A5-87963803D5FC}"/>
+    <hyperlink ref="E53" r:id="rId44" display="https://leetcode.com/problems/number-of-islands/" xr:uid="{D29D69DC-E19E-4088-B231-215DB6A8DF7D}"/>
+    <hyperlink ref="E54" r:id="rId45" display="https://leetcode.com/problems/maximal-square/" xr:uid="{4E8FCF05-5A02-48F2-A2AD-E0D2C4C9E2F9}"/>
+    <hyperlink ref="E55" r:id="rId46" display="https://leetcode.com/problems/max-area-of-island/" xr:uid="{EE0A653B-2E6A-4895-8931-6B3F39B98DD9}"/>
+    <hyperlink ref="E56" r:id="rId47" display="https://leetcode.com/problems/shortest-path-in-a-grid-with-obstacles-elimination/" xr:uid="{0B79990D-ECD7-4CAF-A2D9-3AB240A7041C}"/>
+    <hyperlink ref="E48" r:id="rId48" display="https://leetcode.com/problems/regular-expression-matching/" xr:uid="{40EBA192-A4E1-415A-BE33-06025BBA13DF}"/>
+    <hyperlink ref="E49" r:id="rId49" display="https://leetcode.com/problems/longest-valid-parentheses/" xr:uid="{A37E38DA-A5FA-441A-8D3E-212133460E83}"/>
+    <hyperlink ref="E50" r:id="rId50" display="https://leetcode.com/problems/trapping-rain-water/" xr:uid="{E0F9AD8F-B6F9-479F-B5A2-2645ACED3C7A}"/>
+    <hyperlink ref="E57" r:id="rId51" display="https://www.geeksforgeeks.org/design-a-data-structure-that-supports-insert-delete-search-and-getrandom-in-constant-time/" xr:uid="{4FCB1D1B-83CC-428A-A6B7-48E9B05EFD3E}"/>
+    <hyperlink ref="E58" r:id="rId52" display="https://leetcode.com/problems/lexicographical-numbers/" xr:uid="{AF435358-5CD7-41EE-A8C3-12B77D3455F3}"/>
+    <hyperlink ref="E59" r:id="rId53" display="https://www.geeksforgeeks.org/given-a-number-find-next-smallest-palindrome-larger-than-this-number/" xr:uid="{1B1D1C58-6072-436B-A686-E0ACD0F6D18F}"/>
+    <hyperlink ref="E60" r:id="rId54" display="https://leetcode.com/problems/text-justification/" xr:uid="{86D61980-FF69-42F0-8B81-B53ED5C4F3F4}"/>
+    <hyperlink ref="E61" r:id="rId55" display="https://leetcode.com/problems/largest-rectangle-in-histogram/" xr:uid="{80368F46-8150-43B6-8746-B3D11384B04A}"/>
+    <hyperlink ref="E62" r:id="rId56" display="https://leetcode.com/problems/candy/" xr:uid="{F67ACDF7-EE0E-494F-B6ED-46ADAC7BC548}"/>
+    <hyperlink ref="E63" r:id="rId57" display="https://leetcode.com/problems/sliding-window-maximum/" xr:uid="{C60AC48C-95ED-421E-B476-615B5D4EB719}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/LeetCode Progress.xlsx
+++ b/LeetCode Progress.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bennb\Projects\leetcode_practises\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB000630-D2FD-4A9B-86F5-C319463DD6AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88D336B1-651F-4444-9201-E5975C23639C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6375" yWindow="1980" windowWidth="28800" windowHeight="15345" activeTab="1" xr2:uid="{9009EB83-302D-4EBD-8A36-6E27868F4E00}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" activeTab="2" xr2:uid="{9009EB83-302D-4EBD-8A36-6E27868F4E00}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="310" uniqueCount="212">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="311" uniqueCount="213">
   <si>
     <t>Category</t>
   </si>
@@ -637,9 +637,6 @@
     <t>Closest Subsequence Sum</t>
   </si>
   <si>
-    <t>2 pointers: left and right ("sliding window"), each time checking if satisfy the condition. If yes, increment left+accumulate results by 2^(right-left), else, decrement right</t>
-  </si>
-  <si>
     <t>Number of Subsequences That Satisfy the Given Sum Condition </t>
   </si>
   <si>
@@ -674,6 +671,12 @@
   </si>
   <si>
     <t>Bytedance SWE Interview Qns (Nodeflair)</t>
+  </si>
+  <si>
+    <t>2 pointers: left and right ("sliding window"), each time checking if satisfy the condition. If yes, increment left+accumulate results by 2^(right-left), else, decrement right. Trick: if one digit is fixed, then the permutations have to count the other digits</t>
+  </si>
+  <si>
+    <t>Initialize 4 pointers: left, top, right, bottom. Iterate thru a while loop: (left&lt;right)&amp;(top&lt;btm). Each time iterating thru the row/col and appending to an output list. Also decrementing/incrementing the respective pointers each time</t>
   </si>
 </sst>
 </file>
@@ -1696,7 +1699,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3B76EA0A-37BF-421A-AFF3-E3C95AD4A87B}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="T12" sqref="T12"/>
     </sheetView>
   </sheetViews>
@@ -1711,7 +1714,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C639630B-1257-44C5-AC7E-A6B0B406D0B5}">
   <dimension ref="B1:F63"/>
   <sheetViews>
-    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A47" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="F55" sqref="F55"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1724,7 +1729,7 @@
   <sheetData>
     <row r="1" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B1" s="15" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="D1"/>
     </row>
@@ -1739,10 +1744,10 @@
         <v>1</v>
       </c>
       <c r="E2" s="10" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="F2" s="10" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="3" spans="2:6" ht="30" x14ac:dyDescent="0.25">
@@ -1753,13 +1758,13 @@
         <v>191</v>
       </c>
       <c r="D3" s="14" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="E3" s="12">
         <v>21</v>
       </c>
       <c r="F3" s="7" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="4" spans="2:6" ht="30" x14ac:dyDescent="0.25">
@@ -1770,13 +1775,13 @@
         <v>191</v>
       </c>
       <c r="D4" s="9" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="E4" s="12">
         <v>23</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="5" spans="2:6" ht="30" x14ac:dyDescent="0.25">
@@ -1787,13 +1792,13 @@
         <v>191</v>
       </c>
       <c r="D5" s="11" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="E5" s="12">
         <v>300</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="6" spans="2:6" x14ac:dyDescent="0.25">
@@ -1804,7 +1809,7 @@
         <v>191</v>
       </c>
       <c r="D6" s="11" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="E6" s="13"/>
       <c r="F6" s="7"/>
@@ -1817,7 +1822,7 @@
         <v>191</v>
       </c>
       <c r="D7" s="11" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="E7" s="13"/>
       <c r="F7" s="7"/>
@@ -1830,13 +1835,13 @@
         <v>191</v>
       </c>
       <c r="D8" s="11" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="E8" s="12">
         <v>1498</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>199</v>
+        <v>211</v>
       </c>
     </row>
     <row r="9" spans="2:6" x14ac:dyDescent="0.25">
@@ -2532,7 +2537,7 @@
       </c>
       <c r="F51" s="7"/>
     </row>
-    <row r="52" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="52" spans="2:6" ht="45" x14ac:dyDescent="0.25">
       <c r="B52" s="10">
         <v>50</v>
       </c>
@@ -2545,7 +2550,9 @@
       <c r="E52" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="F52" s="7"/>
+      <c r="F52" s="7" t="s">
+        <v>212</v>
+      </c>
     </row>
     <row r="53" spans="2:6" ht="60" x14ac:dyDescent="0.25">
       <c r="B53" s="10">
